--- a/record/软件功能记录.xlsx
+++ b/record/软件功能记录.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5B062753-67DF-40A9-B509-0CD55C71B931}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4F59AEB2-8666-42F7-ACAE-ED2B1C5C7A08}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
-    <t>软件助手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +203,10 @@
   </si>
   <si>
     <t>Tcpip等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件助手(驱动模块) 待填坑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -271,10 +271,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -560,14 +560,14 @@
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -581,775 +581,746 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row r="67" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row r="68" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row r="69" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row r="70" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row r="71" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row r="72" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row r="73" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row r="74" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row r="75" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row r="76" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row r="77" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row r="78" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row r="79" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row r="80" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
-    <row r="81" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row r="82" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row r="83" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="83" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row r="84" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row r="85" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row r="86" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row r="87" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row r="88" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="10:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="10:12" x14ac:dyDescent="0.3">
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="B15:C15"/>
@@ -1366,19 +1337,48 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
